--- a/Sectors/Fintech.xlsx
+++ b/Sectors/Fintech.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Financials/Finance/Sectors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048FC995B449E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA25530-4EB9-4CFA-9FC5-43560CC70621}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +337,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3.1999999999999997E+24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sectors/Fintech.xlsx
+++ b/Sectors/Fintech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Financials/Finance/Sectors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Contabilidade/Finance/Sectors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048FC995B449E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA25530-4EB9-4CFA-9FC5-43560CC70621}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048FC995B449E5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{535ED5A4-15B0-402C-8062-3242B75E163B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,38 +342,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>223</v>
-      </c>
-    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3.1999999999999997E+24</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
